--- a/Chandan_Shalab_TestNG_Data_Driven_Framework/src/main/java/Data_Source/Login_Test_Results.xlsx
+++ b/Chandan_Shalab_TestNG_Data_Driven_Framework/src/main/java/Data_Source/Login_Test_Results.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -19,6 +19,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>usr123</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>usr</t>
+  </si>
+  <si>
+    <t>who123</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>jon</t>
+  </si>
+  <si>
+    <t>jon123</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>sm8907</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,14 +158,114 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
